--- a/useful_data/retail_2020.xlsx
+++ b/useful_data/retail_2020.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/f8ed9e09e358e342/Desktop/project_1_conservatory/useful_data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/f8ed9e09e358e342/Documents/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="2" documentId="8_{C040389E-8A0A-40AF-A9C3-B075DE37CE54}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{1396DD6B-2063-43E7-A076-C1E829334480}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{C040389E-8A0A-40AF-A9C3-B075DE37CE54}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="20370" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{2E6789C3-C2EE-4924-9E71-8325899234EC}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{2E6789C3-C2EE-4924-9E71-8325899234EC}"/>
   </bookViews>
   <sheets>
     <sheet name="2020" sheetId="1" r:id="rId1"/>
@@ -746,7 +746,7 @@
   <dimension ref="A1:P121"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L7" sqref="L7"/>
+      <selection activeCell="A69" sqref="A69:IV69"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
